--- a/두레박면접시간.xlsx
+++ b/두레박면접시간.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\두레박업무파일\서류파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grand\Documents\InterviewTime\InterviewTimeMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88579284-E230-4771-A518-1D9AE357B38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8C2593-EBA8-48B4-9CD5-019461D4C591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="8130" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{B2FB0D21-FC31-487A-9188-9AD5614121A0}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{B2FB0D21-FC31-487A-9188-9AD5614121A0}"/>
   </bookViews>
   <sheets>
     <sheet name="면접자가능시간" sheetId="1" r:id="rId1"/>
@@ -1015,10 +1015,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>월 10시~12시 화 15시~17시 수 15시~17시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>월 10시~12시 화 15시~18시 수 12시~20시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1070,6 +1066,10 @@
   </si>
   <si>
     <t>월 10시~12시 화 15시~22시 금 12시~22시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월 10시~12시, 화 15시~17시 수 15시~17시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1077,7 +1077,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1088,14 +1088,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -1160,10 +1152,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1499,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
@@ -1510,7 +1502,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
@@ -1521,7 +1513,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
@@ -1532,7 +1524,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
@@ -1543,7 +1535,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
@@ -1554,7 +1546,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
@@ -1565,7 +1557,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
@@ -1576,7 +1568,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
@@ -1587,7 +1579,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
@@ -1598,7 +1590,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
@@ -1609,7 +1601,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1624,7 +1616,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1645,7 +1637,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1653,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1661,7 +1653,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1669,7 +1661,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1677,7 +1669,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1685,7 +1677,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/두레박면접시간.xlsx
+++ b/두레박면접시간.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grand\Documents\InterviewTime\InterviewTimeMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8C2593-EBA8-48B4-9CD5-019461D4C591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2C35ED-4645-46D5-BF74-FC63A6BEF97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{B2FB0D21-FC31-487A-9188-9AD5614121A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B2FB0D21-FC31-487A-9188-9AD5614121A0}"/>
   </bookViews>
   <sheets>
     <sheet name="면접자가능시간" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="170">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1015,14 +1015,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>월 10시~12시 화 15시~18시 수 12시~20시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월 10시~12시 화 15시~19시 수 18시~22시 목 15시~17시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전화번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1057,19 +1049,400 @@
     <t>010-3214-6587</t>
   </si>
   <si>
-    <t>월 10시~12시 화 15시~20시 금 12시~22시</t>
+    <t>월 12시~14시, 화 13시~15시</t>
+  </si>
+  <si>
+    <t>월 13시~15시, 수 12시~13시</t>
+  </si>
+  <si>
+    <t>월 14시~16시, 목 12시~14시</t>
+  </si>
+  <si>
+    <t>화 12시~13시, 금 13시~15시</t>
+  </si>
+  <si>
+    <t>화 13시~15시, 월 15시~16시</t>
+  </si>
+  <si>
+    <t>화 14시~16시, 수 14시~16시</t>
+  </si>
+  <si>
+    <t>수 12시~13시, 금 12시~14시</t>
+  </si>
+  <si>
+    <t>수 14시~16시, 목 13시~15시</t>
+  </si>
+  <si>
+    <t>목 12시~14시, 월 12시~13시</t>
+  </si>
+  <si>
+    <t>금 13시~15시, 화 14시~16시</t>
+  </si>
+  <si>
+    <t>월 14시~16시, 수 12시~14시</t>
+  </si>
+  <si>
+    <t>화 12시~14시, 목 15시~16시</t>
+  </si>
+  <si>
+    <t>수 13시~15시, 금 12시~13시</t>
+  </si>
+  <si>
+    <t>목 13시~15시, 월 13시~14시</t>
+  </si>
+  <si>
+    <t>금 14시~16시, 화 12시~13시</t>
+  </si>
+  <si>
+    <t>화 12시~14시, 수 15시~16시</t>
+  </si>
+  <si>
+    <t>월 13시~15시, 화 12시~14시</t>
+  </si>
+  <si>
+    <t>목 14시~16시, 월 13시~14시</t>
+  </si>
+  <si>
+    <t>금 12시~14시, 화 15시~16시</t>
+  </si>
+  <si>
+    <t>월 12시~14시, 목 12시~14시</t>
+  </si>
+  <si>
+    <t>화 13시~15시, 수 12시~14시</t>
+  </si>
+  <si>
+    <t>수 13시~15시, 금 12시~14시</t>
+  </si>
+  <si>
+    <t>목 14시~16시, 화 12시~14시</t>
+  </si>
+  <si>
+    <t>금 12시~14시, 월 15시~16시</t>
+  </si>
+  <si>
+    <t>월 14시~16시, 수 13시~15시</t>
+  </si>
+  <si>
+    <t>화 12시~13시, 목 12시~14시</t>
+  </si>
+  <si>
+    <t>수 13시~15시, 금 13시~15시</t>
+  </si>
+  <si>
+    <t>목 14시~16시, 월 12시~13시</t>
+  </si>
+  <si>
+    <t>금 12시~14시, 화 14시~16시</t>
+  </si>
+  <si>
+    <t>월 12시~13시, 목 13시~15시</t>
+  </si>
+  <si>
+    <t>화 14시~16시, 수 12시~13시</t>
+  </si>
+  <si>
+    <t>목 14시~16시, 월 13시~15시</t>
+  </si>
+  <si>
+    <t>금 12시~13시, 화 12시~14시</t>
+  </si>
+  <si>
+    <t>월 12시~13시, 수 14시~16시</t>
+  </si>
+  <si>
+    <t>화 13시~14시, 목 12시~13시</t>
+  </si>
+  <si>
+    <t>수 14시~15시, 금 13시~14시</t>
+  </si>
+  <si>
+    <t>목 13시~14시, 월 14시~16시</t>
+  </si>
+  <si>
+    <t>금 14시~16시, 화 13시~14시</t>
+  </si>
+  <si>
+    <t>월 12시~13시, 수 15시~16시</t>
+  </si>
+  <si>
+    <t>화 14시~15시, 목 13시~14시</t>
+  </si>
+  <si>
+    <t>수 12시~13시, 금 15시~16시</t>
+  </si>
+  <si>
+    <t>목 12시~13시, 월 15시~16시</t>
+  </si>
+  <si>
+    <t>금 14시~15시, 화 14시~15시</t>
+  </si>
+  <si>
+    <t>월 13시~14시, 수 12시~14시</t>
+  </si>
+  <si>
+    <t>화 15시~16시, 목 14시~15시</t>
+  </si>
+  <si>
+    <t>수 13시~14시, 금 14시~16시</t>
+  </si>
+  <si>
+    <t>목 15시~16시, 월 12시~13시</t>
+  </si>
+  <si>
+    <t>금 12시~14시, 화 12시~14시</t>
+  </si>
+  <si>
+    <t>010-1234-5679</t>
+  </si>
+  <si>
+    <t>010-9876-5433</t>
+  </si>
+  <si>
+    <t>010-4567-1235</t>
+  </si>
+  <si>
+    <t>010-6543-7891</t>
+  </si>
+  <si>
+    <t>010-7890-1235</t>
+  </si>
+  <si>
+    <t>010-4321-9877</t>
+  </si>
+  <si>
+    <t>010-5678-4322</t>
+  </si>
+  <si>
+    <t>010-2345-6790</t>
+  </si>
+  <si>
+    <t>010-8765-4322</t>
+  </si>
+  <si>
+    <t>010-3214-6588</t>
+  </si>
+  <si>
+    <t>010-1234-5680</t>
+  </si>
+  <si>
+    <t>010-9876-5434</t>
+  </si>
+  <si>
+    <t>010-4567-1236</t>
+  </si>
+  <si>
+    <t>010-6543-7892</t>
+  </si>
+  <si>
+    <t>010-7890-1236</t>
+  </si>
+  <si>
+    <t>010-4321-9878</t>
+  </si>
+  <si>
+    <t>010-5678-4323</t>
+  </si>
+  <si>
+    <t>010-2345-6791</t>
+  </si>
+  <si>
+    <t>010-8765-4323</t>
+  </si>
+  <si>
+    <t>010-3214-6589</t>
+  </si>
+  <si>
+    <t>010-1234-5681</t>
+  </si>
+  <si>
+    <t>010-9876-5435</t>
+  </si>
+  <si>
+    <t>010-4567-1237</t>
+  </si>
+  <si>
+    <t>010-6543-7893</t>
+  </si>
+  <si>
+    <t>010-7890-1237</t>
+  </si>
+  <si>
+    <t>010-4321-9879</t>
+  </si>
+  <si>
+    <t>010-5678-4324</t>
+  </si>
+  <si>
+    <t>010-2345-6792</t>
+  </si>
+  <si>
+    <t>김지호</t>
+  </si>
+  <si>
+    <t>이지선</t>
+  </si>
+  <si>
+    <t>박준</t>
+  </si>
+  <si>
+    <t>최현</t>
+  </si>
+  <si>
+    <t>정하나</t>
+  </si>
+  <si>
+    <t>임수</t>
+  </si>
+  <si>
+    <t>강민희</t>
+  </si>
+  <si>
+    <t>윤지연</t>
+  </si>
+  <si>
+    <t>우석진</t>
+  </si>
+  <si>
+    <t>문선우</t>
+  </si>
+  <si>
+    <t>오혜진</t>
+  </si>
+  <si>
+    <t>전미정</t>
+  </si>
+  <si>
+    <t>류재경</t>
+  </si>
+  <si>
+    <t>조성민</t>
+  </si>
+  <si>
+    <t>백현우</t>
+  </si>
+  <si>
+    <t>서준하</t>
+  </si>
+  <si>
+    <t>신민석</t>
+  </si>
+  <si>
+    <t>장현</t>
+  </si>
+  <si>
+    <t>고서진</t>
+  </si>
+  <si>
+    <t>한재인</t>
+  </si>
+  <si>
+    <t>홍수연</t>
+  </si>
+  <si>
+    <t>남민지</t>
+  </si>
+  <si>
+    <t>안승호</t>
+  </si>
+  <si>
+    <t>손지연</t>
+  </si>
+  <si>
+    <t>권수혁</t>
+  </si>
+  <si>
+    <t>황주영</t>
+  </si>
+  <si>
+    <t>최지우</t>
+  </si>
+  <si>
+    <t>민석연</t>
+  </si>
+  <si>
+    <t>이지원</t>
+  </si>
+  <si>
+    <t>박민재</t>
+  </si>
+  <si>
+    <t>김성호</t>
+  </si>
+  <si>
+    <t>이현진</t>
+  </si>
+  <si>
+    <t>정민수</t>
+  </si>
+  <si>
+    <t>최서정</t>
+  </si>
+  <si>
+    <t>김주현</t>
+  </si>
+  <si>
+    <t>박지호</t>
+  </si>
+  <si>
+    <t>이민지</t>
+  </si>
+  <si>
+    <t>정선우</t>
+  </si>
+  <si>
+    <t>최현석</t>
+  </si>
+  <si>
+    <t>문지연</t>
+  </si>
+  <si>
+    <t>강서진</t>
+  </si>
+  <si>
+    <t>김민석</t>
+  </si>
+  <si>
+    <t>이주희</t>
+  </si>
+  <si>
+    <t>박선호</t>
+  </si>
+  <si>
+    <t>최지원</t>
+  </si>
+  <si>
+    <t>정수정</t>
+  </si>
+  <si>
+    <t>임서진</t>
+  </si>
+  <si>
+    <t>강지연</t>
+  </si>
+  <si>
+    <t>윤선우</t>
+  </si>
+  <si>
+    <t>우지호</t>
+  </si>
+  <si>
+    <t>월 10시~22시, 화 10시~22시, 수 10시~24시</t>
+  </si>
+  <si>
+    <t>월 10시~22시, 화 10시~22시, 목 10시~22시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>월 10시~12시 화 15시~21시 금 12시~22시</t>
+    <t>월 10시~22시, 화 10시~22시, 수 10시~27시, 목 10시~22시, 금 10시~22시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>월 10시~12시 화 15시~22시 금 12시~22시</t>
+    <t>월 10시~22시, 화 10시~22시, 수 10시~23시, 금 10시~22시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>월 10시~12시, 화 15시~17시 수 15시~17시</t>
+    <t>월 10시~22시, 화 10시~22시, 수 10시~22시, 금 10시~22시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1148,14 +1521,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1472,136 +1848,688 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8711E69A-BE9E-4BF5-AFD9-58781500239F}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="42.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    <row r="12" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1615,8 +2543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1E45F8-1E20-40DA-B1F2-AECAAFB4BA77}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1637,7 +2565,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1645,7 +2573,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1653,7 +2581,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1661,7 +2589,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1669,7 +2597,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1677,7 +2605,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
